--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmros\home\crosal\ipca_report\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\research\reports\ipca_report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,39 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Inflation</t>
   </si>
   <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
     <t>mom</t>
   </si>
   <si>
     <t>yoy</t>
   </si>
   <si>
-    <t>Foods</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Monitored</t>
-  </si>
-  <si>
-    <t>Tradables</t>
-  </si>
-  <si>
-    <t>Non-Tradables</t>
-  </si>
-  <si>
     <t>Diffusion</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Foods at Home</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>- Underlying</t>
+  </si>
+  <si>
+    <t>Monitored Prices</t>
+  </si>
+  <si>
+    <t>- Airfares</t>
+  </si>
+  <si>
+    <t>-Eletricy Costs</t>
+  </si>
+  <si>
+    <t>-Gasoline</t>
+  </si>
+  <si>
+    <t>Free Prices</t>
+  </si>
+  <si>
+    <t>Core Inflation (avg.)</t>
+  </si>
+  <si>
+    <t>-IPCA - Ex2</t>
+  </si>
+  <si>
+    <t>-Smoothed Trimmed</t>
+  </si>
+  <si>
+    <t>-Double Weighted</t>
   </si>
 </sst>
 </file>
@@ -87,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,23 +202,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,97 +413,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -526,15 +534,91 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
